--- a/analyses/input/CG_SLA.xlsx
+++ b/analyses/input/CG_SLA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/CGtraits/analyses/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45192916-46B8-5240-AE80-3DBFC0AEAC9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19600" windowHeight="13380" tabRatio="500"/>
+    <workbookView xWindow="9840" yWindow="2160" windowWidth="32260" windowHeight="18060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$609</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -140,9 +146,6 @@
     <t>BETPAP_HF_16A_1</t>
   </si>
   <si>
-    <t>Trichomes</t>
-  </si>
-  <si>
     <t>lots</t>
   </si>
   <si>
@@ -1043,9 +1046,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Serrations</t>
-  </si>
-  <si>
     <t>SAMRAC_GR_9_1</t>
   </si>
   <si>
@@ -1533,12 +1533,18 @@
   </si>
   <si>
     <t>SPIALB_SH_4B_2</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>DBH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1962,22 +1968,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A296" sqref="A296"/>
+      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1994,15 +2000,15 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2013,10 +2019,13 @@
       <c r="E2">
         <v>0.24129</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2028,9 +2037,9 @@
         <v>0.29038999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2041,10 +2050,13 @@
       <c r="E4">
         <v>9.5219999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2056,7 +2068,7 @@
         <v>0.11946</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2069,8 +2081,11 @@
       <c r="E6">
         <v>7.3469999999999994E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6">
+        <v>197.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2084,9 +2099,9 @@
         <v>9.7290000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2097,10 +2112,13 @@
       <c r="E8">
         <v>0.1653</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2112,9 +2130,9 @@
         <v>0.16245999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2125,10 +2143,13 @@
       <c r="E10">
         <v>0.18411</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2140,9 +2161,9 @@
         <v>0.26217000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2153,10 +2174,13 @@
       <c r="E12">
         <v>0.18901000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2168,9 +2192,9 @@
         <v>0.26006000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2181,10 +2205,13 @@
       <c r="E14">
         <v>0.17186999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2196,9 +2223,9 @@
         <v>0.22414999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2209,10 +2236,16 @@
       <c r="E16">
         <v>7.6259999999999994E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>248.2</v>
+      </c>
+      <c r="G16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2224,9 +2257,9 @@
         <v>0.10392</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2237,10 +2270,13 @@
       <c r="E18">
         <v>0.17796999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>161.69999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2252,9 +2288,9 @@
         <v>0.18917</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2265,10 +2301,13 @@
       <c r="E20">
         <v>0.21475</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2280,9 +2319,9 @@
         <v>0.21009</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2293,10 +2332,13 @@
       <c r="E22">
         <v>0.15278</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2308,9 +2350,9 @@
         <v>0.24706</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2321,10 +2363,13 @@
       <c r="E24">
         <v>0.21939</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>184.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2336,9 +2381,9 @@
         <v>0.17649000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2349,10 +2394,13 @@
       <c r="E26">
         <v>0.19861000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2364,9 +2412,9 @@
         <v>0.27407999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2377,10 +2425,16 @@
       <c r="E28">
         <v>0.16891999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>179.6</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2392,9 +2446,9 @@
         <v>0.25574999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2405,10 +2459,13 @@
       <c r="E30">
         <v>0.12425</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2420,9 +2477,9 @@
         <v>0.13735</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2433,10 +2490,13 @@
       <c r="E32">
         <v>0.20055000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2448,9 +2508,9 @@
         <v>0.36786999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2461,10 +2521,13 @@
       <c r="E34">
         <v>0.15117</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2476,9 +2539,9 @@
         <v>0.19486999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2489,10 +2552,16 @@
       <c r="E36">
         <v>0.19314000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>192.2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2504,7 +2573,7 @@
         <v>0.21287</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2517,8 +2586,11 @@
       <c r="E38">
         <v>4.6510000000000003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2532,9 +2604,9 @@
         <v>9.6140000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2545,10 +2617,13 @@
       <c r="E40">
         <v>8.5790000000000005E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2560,9 +2635,9 @@
         <v>9.708E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2573,10 +2648,13 @@
       <c r="E42">
         <v>4.9880000000000001E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2588,9 +2666,9 @@
         <v>0.10205</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2601,10 +2679,13 @@
       <c r="E44">
         <v>0.21104999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2616,9 +2697,9 @@
         <v>0.24274999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2629,10 +2710,16 @@
       <c r="E46">
         <v>0.16993</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>248.2</v>
+      </c>
+      <c r="G46">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2644,7 +2731,7 @@
         <v>0.22594</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2657,8 +2744,11 @@
       <c r="E48">
         <v>9.9180000000000004E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>210.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2762,7 @@
         <v>0.11792999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2685,8 +2775,11 @@
       <c r="E50">
         <v>7.7359999999999998E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2793,7 @@
         <v>8.6169999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2713,8 +2806,14 @@
       <c r="E52">
         <v>0.38027</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>199.2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2728,9 +2827,9 @@
         <v>0.50056</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2741,10 +2840,16 @@
       <c r="E54">
         <v>0.16078000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>220.8</v>
+      </c>
+      <c r="G54">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2756,9 +2861,9 @@
         <v>0.15690999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2769,10 +2874,13 @@
       <c r="E56">
         <v>0.11326</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2784,9 +2892,9 @@
         <v>0.19403000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2797,10 +2905,13 @@
       <c r="E58">
         <v>8.3919999999999995E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2812,9 +2923,9 @@
         <v>0.16682</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2825,10 +2936,13 @@
       <c r="E60">
         <v>0.16425000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2840,9 +2954,9 @@
         <v>0.19253000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2853,10 +2967,16 @@
       <c r="E62">
         <v>0.21471999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="G62">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2868,9 +2988,9 @@
         <v>0.22559000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -2881,10 +3001,13 @@
       <c r="E64">
         <v>0.14233799999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -2896,9 +3019,9 @@
         <v>0.15511</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -2909,10 +3032,13 @@
       <c r="E66">
         <v>0.16597999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2924,9 +3050,9 @@
         <v>0.17818000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -2937,10 +3063,13 @@
       <c r="E68">
         <v>0.12995000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>146.19999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -2952,9 +3081,9 @@
         <v>0.12299</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2965,10 +3094,13 @@
       <c r="E70">
         <v>0.20029</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2980,9 +3112,9 @@
         <v>0.20497000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2996,10 +3128,16 @@
       <c r="E72">
         <v>0.26221</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>191.2</v>
+      </c>
+      <c r="G72">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -3011,9 +3149,9 @@
         <v>0.33265</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -3024,10 +3162,13 @@
       <c r="E74">
         <v>7.7869999999999995E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -3039,7 +3180,7 @@
         <v>8.473E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3052,8 +3193,14 @@
       <c r="E76">
         <v>0.13012000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>216.6</v>
+      </c>
+      <c r="G76">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3067,9 +3214,9 @@
         <v>0.12167</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -3080,10 +3227,13 @@
       <c r="E78">
         <v>5.3960000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -3095,9 +3245,9 @@
         <v>6.0049999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -3108,10 +3258,13 @@
       <c r="E80">
         <v>0.20283999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -3123,9 +3276,9 @@
         <v>0.23113</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -3136,10 +3289,13 @@
       <c r="E82">
         <v>6.4750000000000002E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -3151,7 +3307,7 @@
         <v>7.9189999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3164,8 +3320,11 @@
       <c r="E84">
         <v>0.16836000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3179,9 +3338,9 @@
         <v>0.18905</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -3192,10 +3351,13 @@
       <c r="E86">
         <v>0.10752</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -3207,9 +3369,9 @@
         <v>0.13123000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3220,10 +3382,13 @@
       <c r="E88">
         <v>0.12164999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -3235,9 +3400,9 @@
         <v>0.12797</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -3248,10 +3413,13 @@
       <c r="E90">
         <v>0.10749</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -3263,7 +3431,7 @@
         <v>0.11749</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -3276,8 +3444,11 @@
       <c r="E92">
         <v>7.0349999999999996E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -3291,9 +3462,9 @@
         <v>8.8690000000000005E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -3304,10 +3475,13 @@
       <c r="E94">
         <v>0.11303000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -3319,9 +3493,9 @@
         <v>0.16241</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -3332,10 +3506,13 @@
       <c r="E96">
         <v>0.13142999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -3347,9 +3524,9 @@
         <v>0.15171999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -3360,10 +3537,13 @@
       <c r="E98">
         <v>0.14452000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -3375,9 +3555,9 @@
         <v>0.26002999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -3388,10 +3568,13 @@
       <c r="E100">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -3403,9 +3586,9 @@
         <v>0.20246</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -3416,10 +3599,13 @@
       <c r="E102">
         <v>1.805E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -3431,9 +3617,9 @@
         <v>2.0670000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -3444,10 +3630,13 @@
       <c r="E104">
         <v>3.6080000000000001E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -3459,9 +3648,9 @@
         <v>5.1110000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -3472,10 +3661,13 @@
       <c r="E106">
         <v>1.15E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -3487,9 +3679,9 @@
         <v>1.354E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -3500,10 +3692,13 @@
       <c r="E108">
         <v>2.3539999999999998E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -3515,9 +3710,9 @@
         <v>2.146E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -3528,10 +3723,13 @@
       <c r="E110">
         <v>1.7930000000000001E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -3543,9 +3741,9 @@
         <v>2.6579999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -3556,10 +3754,13 @@
       <c r="E112">
         <v>1.076E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -3571,9 +3772,9 @@
         <v>1.4290000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -3584,10 +3785,13 @@
       <c r="E114">
         <v>1.7950000000000001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -3599,9 +3803,9 @@
         <v>1.8350000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3612,10 +3816,13 @@
       <c r="E116">
         <v>1.789E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -3627,9 +3834,9 @@
         <v>2.164E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -3640,10 +3847,13 @@
       <c r="E118">
         <v>1.4840000000000001E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -3655,9 +3865,9 @@
         <v>1.9390000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -3668,10 +3878,13 @@
       <c r="E120">
         <v>6.8510000000000001E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -3683,9 +3896,9 @@
         <v>7.6880000000000004E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -3696,10 +3909,13 @@
       <c r="E122">
         <v>2.5610000000000001E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -3711,9 +3927,9 @@
         <v>2.3120000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -3724,10 +3940,13 @@
       <c r="E124">
         <v>2.0490000000000001E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -3739,9 +3958,9 @@
         <v>2.4140000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -3752,10 +3971,13 @@
       <c r="E126">
         <v>1.487E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -3767,9 +3989,9 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -3780,10 +4002,13 @@
       <c r="E128">
         <v>2.1409999999999998E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -3795,9 +4020,9 @@
         <v>1.643E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -3808,10 +4033,13 @@
       <c r="E130">
         <v>1.7309999999999999E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -3823,9 +4051,9 @@
         <v>1.729E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -3836,10 +4064,13 @@
       <c r="E132">
         <v>8.5500000000000003E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -3851,9 +4082,9 @@
         <v>9.5099999999999994E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -3864,10 +4095,13 @@
       <c r="E134">
         <v>2.0979999999999999E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -3879,9 +4113,9 @@
         <v>2.264E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -3892,10 +4126,13 @@
       <c r="E136">
         <v>1.0840000000000001E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -3907,9 +4144,9 @@
         <v>1.366E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -3920,10 +4157,13 @@
       <c r="E138">
         <v>1.142E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -3935,9 +4175,9 @@
         <v>1.6310000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -3948,10 +4188,13 @@
       <c r="E140">
         <v>1.8710000000000001E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -3963,9 +4206,9 @@
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -3976,10 +4219,13 @@
       <c r="E142">
         <v>1.6219999999999998E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -3991,9 +4237,9 @@
         <v>1.5740000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -4004,10 +4250,13 @@
       <c r="E144">
         <v>9.4039999999999999E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -4019,9 +4268,9 @@
         <v>0.18326000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -4032,10 +4281,13 @@
       <c r="E146">
         <v>1.8180000000000002E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -4047,9 +4299,9 @@
         <v>1.924E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -4060,10 +4312,13 @@
       <c r="E148">
         <v>1.644E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -4075,9 +4330,9 @@
         <v>1.9689999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -4088,10 +4343,13 @@
       <c r="E150">
         <v>0.21597</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -4103,9 +4361,9 @@
         <v>0.21668999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -4116,10 +4374,13 @@
       <c r="E152">
         <v>4.0869999999999997E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -4131,9 +4392,9 @@
         <v>3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -4144,10 +4405,13 @@
       <c r="E154">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -4159,9 +4423,9 @@
         <v>2.5739999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -4172,10 +4436,13 @@
       <c r="E156">
         <v>2.3789999999999999E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -4187,9 +4454,9 @@
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -4200,10 +4467,13 @@
       <c r="E158">
         <v>1.153E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -4215,9 +4485,9 @@
         <v>1.417E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -4228,10 +4498,13 @@
       <c r="E160">
         <v>2.121E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -4243,9 +4516,9 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -4256,10 +4529,13 @@
       <c r="E162">
         <v>1.359E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -4271,9 +4547,9 @@
         <v>1.4489999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4284,10 +4560,13 @@
       <c r="E164">
         <v>0.13633000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -4299,9 +4578,9 @@
         <v>0.20746000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -4312,10 +4591,13 @@
       <c r="E166">
         <v>2.7890000000000002E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -4327,9 +4609,9 @@
         <v>2.665E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -4340,10 +4622,13 @@
       <c r="E168">
         <v>1.5389999999999999E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -4355,9 +4640,9 @@
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -4368,10 +4653,13 @@
       <c r="E170">
         <v>2.776E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -4383,9 +4671,9 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -4396,10 +4684,13 @@
       <c r="E172">
         <v>7.2199999999999999E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -4411,9 +4702,9 @@
         <v>1.217E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -4424,10 +4715,13 @@
       <c r="E174">
         <v>2.3939999999999999E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -4439,9 +4733,9 @@
         <v>2.1309999999999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -4452,10 +4746,13 @@
       <c r="E176">
         <v>9.0100000000000006E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -4467,9 +4764,9 @@
         <v>1.048E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -4480,10 +4777,13 @@
       <c r="E178">
         <v>2.6759999999999999E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -4495,9 +4795,9 @@
         <v>5.2740000000000002E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -4508,10 +4808,13 @@
       <c r="E180">
         <v>1.1140000000000001E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -4523,9 +4826,9 @@
         <v>1.711E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -4536,10 +4839,13 @@
       <c r="E182">
         <v>0.18048</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -4551,9 +4857,9 @@
         <v>0.19156999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -4564,10 +4870,13 @@
       <c r="E184">
         <v>0.16854</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -4579,9 +4888,9 @@
         <v>0.21546000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -4593,9 +4902,9 @@
         <v>0.36726999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -4607,7 +4916,7 @@
         <v>0.41997000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4930,7 @@
         <v>0.34489999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -4635,9 +4944,9 @@
         <v>0.36325000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -4649,9 +4958,9 @@
         <v>0.2407</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B191">
         <v>5</v>
@@ -4663,7 +4972,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -4677,7 +4986,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -4691,9 +5000,9 @@
         <v>5.2580000000000002E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B194">
         <v>5</v>
@@ -4705,9 +5014,9 @@
         <v>0.16880999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -4719,9 +5028,9 @@
         <v>0.13478999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -4733,9 +5042,9 @@
         <v>0.23386999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -4747,9 +5056,9 @@
         <v>0.32157999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -4761,9 +5070,9 @@
         <v>0.21592</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B199">
         <v>5</v>
@@ -4775,9 +5084,9 @@
         <v>0.16986000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B200">
         <v>5</v>
@@ -4789,9 +5098,9 @@
         <v>0.21618000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B201">
         <v>5</v>
@@ -4803,9 +5112,9 @@
         <v>3.3848999999999997E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B202">
         <v>5</v>
@@ -4817,9 +5126,9 @@
         <v>0.18331</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -4831,9 +5140,9 @@
         <v>0.24690000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B204">
         <v>5</v>
@@ -4845,9 +5154,9 @@
         <v>5.5259999999999997E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B205">
         <v>5</v>
@@ -4859,9 +5168,9 @@
         <v>6.2390000000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B206">
         <v>5</v>
@@ -4873,9 +5182,9 @@
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B207">
         <v>5</v>
@@ -4887,9 +5196,9 @@
         <v>4.6269999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -4901,9 +5210,9 @@
         <v>5.7020000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B209">
         <v>5</v>
@@ -4915,7 +5224,7 @@
         <v>9.1389999999999999E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +5238,7 @@
         <v>4.965E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -4943,9 +5252,9 @@
         <v>0.14504</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -4957,9 +5266,9 @@
         <v>0.11971</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -4971,9 +5280,9 @@
         <v>0.10001</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -4985,9 +5294,9 @@
         <v>0.24195</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -4999,9 +5308,9 @@
         <v>0.52241000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -5013,9 +5322,9 @@
         <v>0.28397</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -5027,7 +5336,7 @@
         <v>0.29221000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5041,7 +5350,7 @@
         <v>0.13753000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5055,7 +5364,7 @@
         <v>0.11472</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -5069,7 +5378,7 @@
         <v>0.13888</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +5392,7 @@
         <v>0.10971</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -5097,7 +5406,7 @@
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5111,7 +5420,7 @@
         <v>2.9479999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5125,7 +5434,7 @@
         <v>0.11919</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5139,9 +5448,9 @@
         <v>0.16156999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B226">
         <v>6</v>
@@ -5153,9 +5462,9 @@
         <v>0.20782</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B227">
         <v>6</v>
@@ -5167,7 +5476,7 @@
         <v>0.27263999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5181,7 +5490,7 @@
         <v>0.21348</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -5195,7 +5504,7 @@
         <v>0.13841000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -5209,7 +5518,7 @@
         <v>0.15295</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -5223,7 +5532,7 @@
         <v>0.10874</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -5237,7 +5546,7 @@
         <v>0.17002</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -5251,7 +5560,7 @@
         <v>0.24712999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5574,7 @@
         <v>9.4619999999999996E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -5279,7 +5588,7 @@
         <v>7.578E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5293,7 +5602,7 @@
         <v>0.12723000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -5307,7 +5616,7 @@
         <v>0.11176999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -5321,7 +5630,7 @@
         <v>0.15967999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>26</v>
       </c>
@@ -5335,7 +5644,7 @@
         <v>0.15803</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -5349,7 +5658,7 @@
         <v>7.7079999999999996E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -5363,7 +5672,7 @@
         <v>0.12814999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>29</v>
       </c>
@@ -5377,7 +5686,7 @@
         <v>0.12877</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>30</v>
       </c>
@@ -5391,9 +5700,9 @@
         <v>0.14662</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -5405,9 +5714,9 @@
         <v>0.13564000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -5419,7 +5728,7 @@
         <v>0.12533</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>31</v>
       </c>
@@ -5433,7 +5742,7 @@
         <v>0.16034999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -5447,7 +5756,7 @@
         <v>0.15765999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -5461,10 +5770,10 @@
         <v>0.28188999999999997</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -5478,10 +5787,10 @@
         <v>0.28216000000000002</v>
       </c>
       <c r="F249" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -5495,10 +5804,10 @@
         <v>0.14576</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -5512,12 +5821,12 @@
         <v>0.24607999999999999</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B252">
         <v>7</v>
@@ -5529,9 +5838,9 @@
         <v>0.74761</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B253">
         <v>7</v>
@@ -5543,9 +5852,9 @@
         <v>0.59269000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B254">
         <v>7</v>
@@ -5557,9 +5866,9 @@
         <v>0.53007000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -5571,9 +5880,9 @@
         <v>0.59028000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B256">
         <v>7</v>
@@ -5585,9 +5894,9 @@
         <v>9.2850000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B257">
         <v>7</v>
@@ -5599,9 +5908,9 @@
         <v>0.22669</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B258">
         <v>7</v>
@@ -5613,9 +5922,9 @@
         <v>0.33617000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B259">
         <v>7</v>
@@ -5627,9 +5936,9 @@
         <v>0.71945999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B260">
         <v>7</v>
@@ -5641,9 +5950,9 @@
         <v>5.8630000000000002E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B261">
         <v>7</v>
@@ -5655,9 +5964,9 @@
         <v>7.5149999999999995E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -5669,9 +5978,9 @@
         <v>0.30843999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B263">
         <v>7</v>
@@ -5683,9 +5992,9 @@
         <v>0.16433</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B264">
         <v>7</v>
@@ -5697,9 +6006,9 @@
         <v>0.88275000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B265">
         <v>7</v>
@@ -5711,9 +6020,9 @@
         <v>0.83233999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B266">
         <v>7</v>
@@ -5725,9 +6034,9 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B267">
         <v>7</v>
@@ -5739,9 +6048,9 @@
         <v>0.14277000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B268">
         <v>7</v>
@@ -5753,9 +6062,9 @@
         <v>0.11686000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B269">
         <v>7</v>
@@ -5767,9 +6076,9 @@
         <v>0.15851999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B270">
         <v>7</v>
@@ -5781,9 +6090,9 @@
         <v>0.54727000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B271">
         <v>7</v>
@@ -5795,9 +6104,9 @@
         <v>0.34809000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B272">
         <v>7</v>
@@ -5809,9 +6118,9 @@
         <v>0.23891000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B273">
         <v>7</v>
@@ -5823,9 +6132,9 @@
         <v>0.20846000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -5837,9 +6146,9 @@
         <v>0.15483</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B275">
         <v>7</v>
@@ -5851,9 +6160,9 @@
         <v>0.15245</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B276">
         <v>7</v>
@@ -5865,9 +6174,9 @@
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B277">
         <v>7</v>
@@ -5879,9 +6188,9 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B278">
         <v>7</v>
@@ -5893,9 +6202,9 @@
         <v>0.12684000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B279">
         <v>7</v>
@@ -5907,9 +6216,9 @@
         <v>0.16905999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B280">
         <v>7</v>
@@ -5921,9 +6230,9 @@
         <v>0.10462</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B281">
         <v>7</v>
@@ -5935,9 +6244,9 @@
         <v>0.17867</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B282">
         <v>7</v>
@@ -5949,9 +6258,9 @@
         <v>0.10596</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B283">
         <v>7</v>
@@ -5963,9 +6272,9 @@
         <v>0.15851000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B284">
         <v>7</v>
@@ -5977,9 +6286,9 @@
         <v>0.11004</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B285">
         <v>7</v>
@@ -5991,9 +6300,9 @@
         <v>0.14535000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B286">
         <v>7</v>
@@ -6005,9 +6314,9 @@
         <v>0.14208999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B287">
         <v>7</v>
@@ -6019,9 +6328,9 @@
         <v>0.20301</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B288">
         <v>7</v>
@@ -6033,9 +6342,9 @@
         <v>0.26718999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B289">
         <v>7</v>
@@ -6047,9 +6356,9 @@
         <v>0.14169000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B290">
         <v>7</v>
@@ -6061,9 +6370,9 @@
         <v>0.3669</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B291">
         <v>7</v>
@@ -6075,9 +6384,9 @@
         <v>0.45305000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B292">
         <v>7</v>
@@ -6089,9 +6398,9 @@
         <v>0.12182</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B293">
         <v>7</v>
@@ -6103,9 +6412,9 @@
         <v>0.30096000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B294">
         <v>7</v>
@@ -6117,9 +6426,9 @@
         <v>0.11133999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B295">
         <v>7</v>
@@ -6131,9 +6440,9 @@
         <v>0.11206000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -6145,9 +6454,9 @@
         <v>0.22509000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B297">
         <v>8</v>
@@ -6159,9 +6468,9 @@
         <v>0.1525</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B298">
         <v>8</v>
@@ -6173,9 +6482,9 @@
         <v>2.0219999999999998E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -6187,9 +6496,9 @@
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B300">
         <v>8</v>
@@ -6201,9 +6510,9 @@
         <v>2.1059999999999999E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B301">
         <v>8</v>
@@ -6215,9 +6524,9 @@
         <v>2.0920000000000001E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B302">
         <v>8</v>
@@ -6229,9 +6538,9 @@
         <v>0.19822000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B303">
         <v>8</v>
@@ -6243,9 +6552,9 @@
         <v>0.15053</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B304">
         <v>8</v>
@@ -6257,9 +6566,9 @@
         <v>1.468E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B305">
         <v>8</v>
@@ -6271,9 +6580,9 @@
         <v>1.559E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B306">
         <v>8</v>
@@ -6285,9 +6594,9 @@
         <v>2.2890000000000001E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B307">
         <v>8</v>
@@ -6299,9 +6608,9 @@
         <v>2.3529999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B308">
         <v>8</v>
@@ -6313,9 +6622,9 @@
         <v>0.15511</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B309">
         <v>8</v>
@@ -6327,9 +6636,9 @@
         <v>0.30923</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B310">
         <v>8</v>
@@ -6341,9 +6650,9 @@
         <v>7.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B311">
         <v>8</v>
@@ -6355,9 +6664,9 @@
         <v>1.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B312">
         <v>8</v>
@@ -6369,9 +6678,9 @@
         <v>1.521E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B313">
         <v>8</v>
@@ -6383,9 +6692,9 @@
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B314">
         <v>8</v>
@@ -6397,9 +6706,9 @@
         <v>2.102E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B315">
         <v>8</v>
@@ -6411,9 +6720,9 @@
         <v>1.6279999999999999E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B316">
         <v>8</v>
@@ -6425,9 +6734,9 @@
         <v>2.265E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B317">
         <v>8</v>
@@ -6439,9 +6748,9 @@
         <v>1.7149999999999999E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B318">
         <v>8</v>
@@ -6453,9 +6762,9 @@
         <v>1.6039999999999999E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B319">
         <v>8</v>
@@ -6467,9 +6776,9 @@
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B320">
         <v>8</v>
@@ -6481,9 +6790,9 @@
         <v>1.721E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B321">
         <v>8</v>
@@ -6495,9 +6804,9 @@
         <v>1.8780000000000002E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B322">
         <v>8</v>
@@ -6509,9 +6818,9 @@
         <v>1.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B323">
         <v>8</v>
@@ -6523,9 +6832,9 @@
         <v>1.189E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B324">
         <v>8</v>
@@ -6537,9 +6846,9 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B325">
         <v>8</v>
@@ -6551,9 +6860,9 @@
         <v>2.128E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B326">
         <v>8</v>
@@ -6565,9 +6874,9 @@
         <v>7.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B327">
         <v>8</v>
@@ -6579,9 +6888,9 @@
         <v>2.2370000000000001E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B328">
         <v>8</v>
@@ -6593,9 +6902,9 @@
         <v>5.1200000000000004E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B329">
         <v>8</v>
@@ -6607,9 +6916,9 @@
         <v>1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B330">
         <v>8</v>
@@ -6621,9 +6930,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B331">
         <v>8</v>
@@ -6635,9 +6944,9 @@
         <v>2.291E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B332">
         <v>8</v>
@@ -6649,9 +6958,9 @@
         <v>0.22731999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B333">
         <v>8</v>
@@ -6663,9 +6972,9 @@
         <v>0.17918000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B334">
         <v>8</v>
@@ -6677,9 +6986,9 @@
         <v>2.0809999999999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B335">
         <v>8</v>
@@ -6691,9 +7000,9 @@
         <v>2.0060000000000001E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B336">
         <v>8</v>
@@ -6705,9 +7014,9 @@
         <v>7.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B337">
         <v>8</v>
@@ -6719,9 +7028,9 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B338">
         <v>8</v>
@@ -6733,9 +7042,9 @@
         <v>1.7909999999999999E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B339">
         <v>8</v>
@@ -6747,9 +7056,9 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B340">
         <v>8</v>
@@ -6761,9 +7070,9 @@
         <v>0.18176999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -6775,9 +7084,9 @@
         <v>0.20447000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -6789,9 +7098,9 @@
         <v>2.7390000000000001E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B343">
         <v>8</v>
@@ -6803,9 +7112,9 @@
         <v>1.8110000000000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B344">
         <v>8</v>
@@ -6817,9 +7126,9 @@
         <v>0.23558000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -6831,9 +7140,9 @@
         <v>0.18911</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B346">
         <v>8</v>
@@ -6845,9 +7154,9 @@
         <v>4.2889999999999998E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B347">
         <v>8</v>
@@ -6859,9 +7168,9 @@
         <v>8.5419999999999996E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B348">
         <v>8</v>
@@ -6873,9 +7182,9 @@
         <v>6.1240000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B349">
         <v>8</v>
@@ -6887,9 +7196,9 @@
         <v>6.2269999999999999E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B350">
         <v>8</v>
@@ -6901,9 +7210,9 @@
         <v>1.438E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B351">
         <v>8</v>
@@ -6915,9 +7224,9 @@
         <v>1.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B352">
         <v>8</v>
@@ -6929,9 +7238,9 @@
         <v>1.192E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B353">
         <v>8</v>
@@ -6943,9 +7252,9 @@
         <v>1.8769999999999998E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B354">
         <v>8</v>
@@ -6957,9 +7266,9 @@
         <v>2.061E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B355">
         <v>8</v>
@@ -6971,9 +7280,9 @@
         <v>2.6790000000000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B356">
         <v>8</v>
@@ -6985,9 +7294,9 @@
         <v>1.5709999999999998E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B357">
         <v>8</v>
@@ -6999,9 +7308,9 @@
         <v>2.8830000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B358">
         <v>8</v>
@@ -7013,9 +7322,9 @@
         <v>2.811E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B359">
         <v>8</v>
@@ -7027,9 +7336,9 @@
         <v>2.2259999999999999E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B360">
         <v>8</v>
@@ -7041,9 +7350,9 @@
         <v>1.8839999999999999E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B361">
         <v>8</v>
@@ -7055,9 +7364,9 @@
         <v>2.215E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B362">
         <v>8</v>
@@ -7069,9 +7378,9 @@
         <v>0.16156999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B363">
         <v>8</v>
@@ -7083,9 +7392,9 @@
         <v>0.18174000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B364">
         <v>8</v>
@@ -7097,9 +7406,9 @@
         <v>9.6100000000000005E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B365">
         <v>8</v>
@@ -7111,9 +7420,9 @@
         <v>2.324E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B366">
         <v>8</v>
@@ -7125,9 +7434,9 @@
         <v>0.11971999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B367">
         <v>8</v>
@@ -7139,9 +7448,9 @@
         <v>0.21859000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B368">
         <v>8</v>
@@ -7153,9 +7462,9 @@
         <v>6.6890000000000005E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B369">
         <v>8</v>
@@ -7167,9 +7476,9 @@
         <v>9.5019999999999993E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B370">
         <v>8</v>
@@ -7181,9 +7490,9 @@
         <v>0.10115</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B371">
         <v>8</v>
@@ -7195,9 +7504,9 @@
         <v>0.11027000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B372">
         <v>8</v>
@@ -7209,9 +7518,9 @@
         <v>2.0590000000000001E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B373">
         <v>8</v>
@@ -7223,9 +7532,9 @@
         <v>1.933E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B374">
         <v>8</v>
@@ -7237,9 +7546,9 @@
         <v>0.19814999999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B375">
         <v>8</v>
@@ -7251,9 +7560,9 @@
         <v>0.16063</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B376">
         <v>8</v>
@@ -7265,9 +7574,9 @@
         <v>0.22477</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B377">
         <v>8</v>
@@ -7279,7 +7588,7 @@
         <v>0.21346999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>31</v>
       </c>
@@ -7293,7 +7602,7 @@
         <v>0.11339</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -7307,7 +7616,7 @@
         <v>0.11249000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -7321,7 +7630,7 @@
         <v>8.5940000000000003E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -7335,9 +7644,9 @@
         <v>0.11433</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B382">
         <v>9</v>
@@ -7349,9 +7658,9 @@
         <v>0.28326000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B383">
         <v>9</v>
@@ -7363,9 +7672,9 @@
         <v>0.28649000000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B384">
         <v>9</v>
@@ -7377,9 +7686,9 @@
         <v>9.1730000000000006E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B385">
         <v>9</v>
@@ -7391,9 +7700,9 @@
         <v>0.12197</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B386">
         <v>9</v>
@@ -7405,9 +7714,9 @@
         <v>0.16231000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B387">
         <v>9</v>
@@ -7419,7 +7728,7 @@
         <v>0.15414</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -7433,7 +7742,7 @@
         <v>0.15611</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>18</v>
       </c>
@@ -7447,9 +7756,9 @@
         <v>0.16045000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B390">
         <v>9</v>
@@ -7461,9 +7770,9 @@
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B391">
         <v>9</v>
@@ -7475,9 +7784,9 @@
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B392">
         <v>9</v>
@@ -7489,9 +7798,9 @@
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B393">
         <v>9</v>
@@ -7503,9 +7812,9 @@
         <v>8.8910000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -7517,9 +7826,9 @@
         <v>0.14657000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B395">
         <v>9</v>
@@ -7531,9 +7840,9 @@
         <v>0.15289</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B396">
         <v>9</v>
@@ -7545,9 +7854,9 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B397">
         <v>9</v>
@@ -7559,9 +7868,9 @@
         <v>8.7970000000000007E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B398">
         <v>10</v>
@@ -7573,9 +7882,9 @@
         <v>0.60009999999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B399">
         <v>10</v>
@@ -7587,9 +7896,9 @@
         <v>0.79107000000000005</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B400">
         <v>10</v>
@@ -7601,9 +7910,9 @@
         <v>0.12734999999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B401">
         <v>10</v>
@@ -7615,9 +7924,9 @@
         <v>8.5120000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B402">
         <v>10</v>
@@ -7629,9 +7938,9 @@
         <v>0.65012000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B403">
         <v>10</v>
@@ -7643,9 +7952,9 @@
         <v>0.55066000000000004</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B404">
         <v>10</v>
@@ -7657,9 +7966,9 @@
         <v>0.20003000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B405">
         <v>10</v>
@@ -7671,9 +7980,9 @@
         <v>0.16546</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B406">
         <v>10</v>
@@ -7685,9 +7994,9 @@
         <v>0.25124000000000002</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B407">
         <v>10</v>
@@ -7699,9 +8008,9 @@
         <v>0.29086000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B408">
         <v>10</v>
@@ -7713,9 +8022,9 @@
         <v>2.7519999999999999E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B409">
         <v>10</v>
@@ -7727,9 +8036,9 @@
         <v>9.8409999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B410">
         <v>10</v>
@@ -7741,9 +8050,9 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B411">
         <v>10</v>
@@ -7755,9 +8064,9 @@
         <v>0.14049</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B412">
         <v>10</v>
@@ -7769,9 +8078,9 @@
         <v>2.0879999999999999E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B413">
         <v>10</v>
@@ -7783,9 +8092,9 @@
         <v>4.7530000000000003E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B414">
         <v>10</v>
@@ -7797,9 +8106,9 @@
         <v>9.4070000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B415">
         <v>10</v>
@@ -7811,9 +8120,9 @@
         <v>0.12581000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B416">
         <v>10</v>
@@ -7825,9 +8134,9 @@
         <v>0.35615999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B417">
         <v>10</v>
@@ -7839,9 +8148,9 @@
         <v>0.12377000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B418">
         <v>11</v>
@@ -7853,9 +8162,9 @@
         <v>1.129E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B419">
         <v>11</v>
@@ -7867,9 +8176,9 @@
         <v>1.0059999999999999E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B420">
         <v>11</v>
@@ -7881,9 +8190,9 @@
         <v>2.3109999999999999E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B421">
         <v>11</v>
@@ -7895,9 +8204,9 @@
         <v>2.0840000000000001E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B422">
         <v>11</v>
@@ -7909,9 +8218,9 @@
         <v>7.6400000000000001E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B423">
         <v>11</v>
@@ -7923,9 +8232,9 @@
         <v>1.8450000000000001E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B424">
         <v>11</v>
@@ -7937,9 +8246,9 @@
         <v>2.4539999999999999E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B425">
         <v>11</v>
@@ -7951,9 +8260,9 @@
         <v>3.057E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B426">
         <v>11</v>
@@ -7965,9 +8274,9 @@
         <v>1.221E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B427">
         <v>11</v>
@@ -7979,9 +8288,9 @@
         <v>1.375E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B428">
         <v>11</v>
@@ -7993,9 +8302,9 @@
         <v>1.251E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B429">
         <v>11</v>
@@ -8007,9 +8316,9 @@
         <v>1.7430000000000001E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B430">
         <v>11</v>
@@ -8021,9 +8330,9 @@
         <v>6.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B431">
         <v>11</v>
@@ -8035,9 +8344,9 @@
         <v>2.164E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B432">
         <v>11</v>
@@ -8049,9 +8358,9 @@
         <v>6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B433">
         <v>11</v>
@@ -8063,9 +8372,9 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B434">
         <v>11</v>
@@ -8077,9 +8386,9 @@
         <v>2.5729999999999999E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B435">
         <v>11</v>
@@ -8091,9 +8400,9 @@
         <v>2.9080000000000002E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B436">
         <v>11</v>
@@ -8105,9 +8414,9 @@
         <v>2.6620000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B437">
         <v>11</v>
@@ -8119,9 +8428,9 @@
         <v>3.6679999999999997E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B438">
         <v>11</v>
@@ -8133,9 +8442,9 @@
         <v>1.9120000000000002E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B439">
         <v>11</v>
@@ -8147,9 +8456,9 @@
         <v>3.0759999999999999E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B440">
         <v>11</v>
@@ -8161,9 +8470,9 @@
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B441">
         <v>11</v>
@@ -8175,9 +8484,9 @@
         <v>0.17587</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B442">
         <v>11</v>
@@ -8189,9 +8498,9 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B443">
         <v>11</v>
@@ -8203,9 +8512,9 @@
         <v>3.7039999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B444">
         <v>11</v>
@@ -8217,9 +8526,9 @@
         <v>1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B445">
         <v>11</v>
@@ -8231,9 +8540,9 @@
         <v>2.078E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B446">
         <v>11</v>
@@ -8245,9 +8554,9 @@
         <v>1.502E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B447">
         <v>11</v>
@@ -8259,9 +8568,9 @@
         <v>1.703E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B448">
         <v>11</v>
@@ -8273,9 +8582,9 @@
         <v>5.2650000000000002E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B449">
         <v>11</v>
@@ -8287,9 +8596,9 @@
         <v>7.6840000000000006E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B450">
         <v>11</v>
@@ -8301,9 +8610,9 @@
         <v>0.11239</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B451">
         <v>11</v>
@@ -8315,9 +8624,9 @@
         <v>0.13935</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B452">
         <v>11</v>
@@ -8329,9 +8638,9 @@
         <v>0.13957</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B453">
         <v>11</v>
@@ -8343,9 +8652,9 @@
         <v>0.21601999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B454">
         <v>11</v>
@@ -8357,9 +8666,9 @@
         <v>1.393E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B455">
         <v>11</v>
@@ -8371,9 +8680,9 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B456">
         <v>11</v>
@@ -8385,9 +8694,9 @@
         <v>0.11508</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B457">
         <v>11</v>
@@ -8399,9 +8708,9 @@
         <v>0.14351</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B458">
         <v>11</v>
@@ -8413,9 +8722,9 @@
         <v>1.422E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B459">
         <v>11</v>
@@ -8427,9 +8736,9 @@
         <v>1.5959999999999998E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B460">
         <v>11</v>
@@ -8441,9 +8750,9 @@
         <v>5.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B461">
         <v>11</v>
@@ -8455,9 +8764,9 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B462">
         <v>11</v>
@@ -8469,9 +8778,9 @@
         <v>4.0140000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B463">
         <v>11</v>
@@ -8483,9 +8792,9 @@
         <v>5.2470000000000003E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B464">
         <v>11</v>
@@ -8497,9 +8806,9 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B465">
         <v>11</v>
@@ -8511,9 +8820,9 @@
         <v>9.3509999999999996E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B466">
         <v>11</v>
@@ -8525,9 +8834,9 @@
         <v>1.635E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B467">
         <v>11</v>
@@ -8539,9 +8848,9 @@
         <v>3.671E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -8553,9 +8862,9 @@
         <v>1.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B469">
         <v>11</v>
@@ -8567,9 +8876,9 @@
         <v>2.0104E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B470">
         <v>11</v>
@@ -8581,9 +8890,9 @@
         <v>0.19520999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B471">
         <v>11</v>
@@ -8595,9 +8904,9 @@
         <v>0.19378999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B472">
         <v>11</v>
@@ -8609,9 +8918,9 @@
         <v>1.9859999999999999E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B473">
         <v>11</v>
@@ -8623,9 +8932,9 @@
         <v>1.5709999999999998E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B474">
         <v>11</v>
@@ -8637,9 +8946,9 @@
         <v>8.5330000000000003E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B475">
         <v>11</v>
@@ -8651,9 +8960,9 @@
         <v>0.15762000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B476">
         <v>11</v>
@@ -8665,9 +8974,9 @@
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B477">
         <v>11</v>
@@ -8679,9 +8988,9 @@
         <v>2.615E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B478">
         <v>12</v>
@@ -8693,9 +9002,9 @@
         <v>0.21784999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B479">
         <v>12</v>
@@ -8707,9 +9016,9 @@
         <v>0.19366</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B480">
         <v>12</v>
@@ -8721,9 +9030,9 @@
         <v>0.37059999999999998</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B481">
         <v>12</v>
@@ -8735,9 +9044,9 @@
         <v>0.41796</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B482">
         <v>12</v>
@@ -8749,9 +9058,9 @@
         <v>0.23003999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B483">
         <v>12</v>
@@ -8763,9 +9072,9 @@
         <v>0.27872000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B484">
         <v>12</v>
@@ -8777,9 +9086,9 @@
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B485">
         <v>12</v>
@@ -8791,9 +9100,9 @@
         <v>1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B486">
         <v>12</v>
@@ -8805,9 +9114,9 @@
         <v>0.10882</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B487">
         <v>12</v>
@@ -8819,7 +9128,7 @@
         <v>0.16780999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -8833,7 +9142,7 @@
         <v>7.7229999999999993E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -8847,9 +9156,9 @@
         <v>0.25599</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B490">
         <v>12</v>
@@ -8861,9 +9170,9 @@
         <v>0.14387</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B491">
         <v>12</v>
@@ -8875,7 +9184,7 @@
         <v>0.13713</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>21</v>
       </c>
@@ -8889,7 +9198,7 @@
         <v>0.11133999999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>22</v>
       </c>
@@ -8906,9 +9215,9 @@
         <v>0.12712999999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B494">
         <v>12</v>
@@ -8920,9 +9229,9 @@
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B495">
         <v>12</v>
@@ -8934,9 +9243,9 @@
         <v>0.10647</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B496">
         <v>12</v>
@@ -8948,9 +9257,9 @@
         <v>0.13971</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B497">
         <v>12</v>
@@ -8962,9 +9271,9 @@
         <v>0.12268</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B498">
         <v>13</v>
@@ -8976,9 +9285,9 @@
         <v>0.70438000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B499">
         <v>13</v>
@@ -8990,9 +9299,9 @@
         <v>0.73585999999999996</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B500">
         <v>13</v>
@@ -9004,9 +9313,9 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B501">
         <v>13</v>
@@ -9018,9 +9327,9 @@
         <v>7.7400000000000004E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B502">
         <v>13</v>
@@ -9032,9 +9341,9 @@
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B503">
         <v>13</v>
@@ -9046,9 +9355,9 @@
         <v>0.12288</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B504">
         <v>13</v>
@@ -9060,9 +9369,9 @@
         <v>0.95243999999999995</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B505">
         <v>13</v>
@@ -9074,9 +9383,9 @@
         <v>0.68959999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B506">
         <v>13</v>
@@ -9088,9 +9397,9 @@
         <v>1.1639999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B507">
         <v>13</v>
@@ -9102,9 +9411,9 @@
         <v>1.227E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B508">
         <v>13</v>
@@ -9116,9 +9425,9 @@
         <v>2.0289999999999999E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B509">
         <v>13</v>
@@ -9130,9 +9439,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B510">
         <v>13</v>
@@ -9144,9 +9453,9 @@
         <v>0.33276</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B511">
         <v>13</v>
@@ -9158,9 +9467,9 @@
         <v>0.22325</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B512">
         <v>13</v>
@@ -9172,9 +9481,9 @@
         <v>5.0200000000000002E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B513">
         <v>13</v>
@@ -9186,9 +9495,9 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B514">
         <v>13</v>
@@ -9200,9 +9509,9 @@
         <v>0.50832999999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B515">
         <v>13</v>
@@ -9214,9 +9523,9 @@
         <v>0.39215</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B516">
         <v>13</v>
@@ -9228,9 +9537,9 @@
         <v>7.1910000000000002E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B517">
         <v>13</v>
@@ -9242,9 +9551,9 @@
         <v>9.1469999999999996E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B518">
         <v>13</v>
@@ -9256,9 +9565,9 @@
         <v>9.4520000000000007E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B519">
         <v>13</v>
@@ -9270,9 +9579,9 @@
         <v>8.0629999999999993E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B520">
         <v>13</v>
@@ -9284,9 +9593,9 @@
         <v>7.2489999999999999E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B521">
         <v>13</v>
@@ -9298,9 +9607,9 @@
         <v>0.17904</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B522">
         <v>13</v>
@@ -9312,9 +9621,9 @@
         <v>0.92491000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B523">
         <v>13</v>
@@ -9326,9 +9635,9 @@
         <v>0.44506000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B524">
         <v>13</v>
@@ -9340,9 +9649,9 @@
         <v>9.2520000000000005E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B525">
         <v>13</v>
@@ -9354,9 +9663,9 @@
         <v>0.14265</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B526">
         <v>13</v>
@@ -9368,9 +9677,9 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B527">
         <v>13</v>
@@ -9382,9 +9691,9 @@
         <v>0.45272000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B528">
         <v>13</v>
@@ -9396,9 +9705,9 @@
         <v>0.67486999999999997</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B529">
         <v>13</v>
@@ -9410,9 +9719,9 @@
         <v>0.69494</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B530">
         <v>13</v>
@@ -9424,9 +9733,9 @@
         <v>7.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B531">
         <v>13</v>
@@ -9438,9 +9747,9 @@
         <v>1.4189999999999999E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B532">
         <v>13</v>
@@ -9452,9 +9761,9 @@
         <v>9.0539999999999995E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B533">
         <v>13</v>
@@ -9466,9 +9775,9 @@
         <v>0.11568000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B534">
         <v>13</v>
@@ -9480,9 +9789,9 @@
         <v>7.0749999999999993E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B535">
         <v>13</v>
@@ -9494,9 +9803,9 @@
         <v>9.536E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B536">
         <v>13</v>
@@ -9508,9 +9817,9 @@
         <v>9.3630000000000005E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B537">
         <v>13</v>
@@ -9522,9 +9831,9 @@
         <v>7.9619999999999996E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B538">
         <v>13</v>
@@ -9536,9 +9845,9 @@
         <v>0.10012</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B539">
         <v>13</v>
@@ -9550,9 +9859,9 @@
         <v>0.20394000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B540">
         <v>13</v>
@@ -9564,9 +9873,9 @@
         <v>9.5740000000000006E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B541">
         <v>13</v>
@@ -9578,9 +9887,9 @@
         <v>0.15275</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B542">
         <v>14</v>
@@ -9592,9 +9901,9 @@
         <v>1.7610000000000001E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B543">
         <v>14</v>
@@ -9606,9 +9915,9 @@
         <v>2.5579999999999999E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B544">
         <v>14</v>
@@ -9620,9 +9929,9 @@
         <v>2.6040000000000001E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B545">
         <v>14</v>
@@ -9634,9 +9943,9 @@
         <v>3.6850000000000001E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B546">
         <v>14</v>
@@ -9648,9 +9957,9 @@
         <v>0.14152000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B547">
         <v>14</v>
@@ -9662,9 +9971,9 @@
         <v>7.825E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B548">
         <v>14</v>
@@ -9676,9 +9985,9 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B549">
         <v>14</v>
@@ -9690,9 +9999,9 @@
         <v>5.0930000000000003E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B550">
         <v>14</v>
@@ -9704,9 +10013,9 @@
         <v>0.14319999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B551">
         <v>14</v>
@@ -9718,9 +10027,9 @@
         <v>0.19453000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B552">
         <v>14</v>
@@ -9732,9 +10041,9 @@
         <v>8.6819999999999994E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B553">
         <v>14</v>
@@ -9746,9 +10055,9 @@
         <v>0.10729</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B554">
         <v>14</v>
@@ -9760,9 +10069,9 @@
         <v>8.6970000000000006E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B555">
         <v>14</v>
@@ -9774,9 +10083,9 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B556">
         <v>14</v>
@@ -9788,9 +10097,9 @@
         <v>8.8209999999999997E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B557">
         <v>14</v>
@@ -9802,9 +10111,9 @@
         <v>8.9380000000000001E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B558">
         <v>14</v>
@@ -9816,9 +10125,9 @@
         <v>8.7870000000000004E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B559">
         <v>14</v>
@@ -9830,9 +10139,9 @@
         <v>0.15916</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B560">
         <v>14</v>
@@ -9844,9 +10153,9 @@
         <v>9.8269999999999996E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B561">
         <v>14</v>
@@ -9858,9 +10167,9 @@
         <v>0.11771</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B562">
         <v>14</v>
@@ -9872,9 +10181,9 @@
         <v>1.5520000000000001E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B563">
         <v>14</v>
@@ -9886,9 +10195,9 @@
         <v>1.6920000000000001E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B564">
         <v>14</v>
@@ -9900,9 +10209,9 @@
         <v>2.0930000000000001E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B565">
         <v>14</v>
@@ -9914,9 +10223,9 @@
         <v>2.639E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B566">
         <v>14</v>
@@ -9928,9 +10237,9 @@
         <v>0.12214</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B567">
         <v>14</v>
@@ -9942,9 +10251,9 @@
         <v>0.12737000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B568">
         <v>15</v>
@@ -9956,9 +10265,9 @@
         <v>8.4390000000000007E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B569">
         <v>15</v>
@@ -9970,9 +10279,9 @@
         <v>9.1340000000000005E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B570">
         <v>15</v>
@@ -9984,9 +10293,9 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B571">
         <v>15</v>
@@ -9998,9 +10307,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B572">
         <v>15</v>
@@ -10012,9 +10321,9 @@
         <v>8.8120000000000004E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B573">
         <v>15</v>
@@ -10026,9 +10335,9 @@
         <v>0.17559</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B574">
         <v>15</v>
@@ -10040,9 +10349,9 @@
         <v>0.21077000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B575">
         <v>15</v>
@@ -10054,9 +10363,9 @@
         <v>0.23976</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B576">
         <v>15</v>
@@ -10068,9 +10377,9 @@
         <v>0.10725</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B577">
         <v>15</v>
@@ -10082,9 +10391,9 @@
         <v>0.11244</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B578">
         <v>15</v>
@@ -10096,9 +10405,9 @@
         <v>0.23261000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B579">
         <v>15</v>
@@ -10110,9 +10419,9 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B580">
         <v>15</v>
@@ -10124,9 +10433,9 @@
         <v>0.23895</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B581">
         <v>15</v>
@@ -10138,9 +10447,9 @@
         <v>0.23094999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B582">
         <v>15</v>
@@ -10152,9 +10461,9 @@
         <v>0.10063999999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B583">
         <v>15</v>
@@ -10166,7 +10475,7 @@
         <v>0.23146</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -10180,7 +10489,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -10194,9 +10503,9 @@
         <v>0.12823999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B586">
         <v>15</v>
@@ -10208,9 +10517,9 @@
         <v>7.9119999999999996E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B587">
         <v>15</v>
@@ -10222,9 +10531,9 @@
         <v>0.11219</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B588">
         <v>16</v>
@@ -10236,9 +10545,9 @@
         <v>0.13852</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B589">
         <v>16</v>
@@ -10250,9 +10559,9 @@
         <v>0.18271999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B590">
         <v>16</v>
@@ -10264,9 +10573,9 @@
         <v>0.13178000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B591">
         <v>16</v>
@@ -10278,9 +10587,9 @@
         <v>0.20727000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B592">
         <v>16</v>
@@ -10292,9 +10601,9 @@
         <v>0.18093000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B593">
         <v>16</v>
@@ -10306,9 +10615,9 @@
         <v>0.16672000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B594">
         <v>16</v>
@@ -10320,9 +10629,9 @@
         <v>0.22663</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B595">
         <v>16</v>
@@ -10334,9 +10643,9 @@
         <v>0.23086999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B596">
         <v>16</v>
@@ -10348,9 +10657,9 @@
         <v>0.19159000000000001</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B597">
         <v>16</v>
@@ -10362,7 +10671,7 @@
         <v>0.24112</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>29</v>
       </c>
@@ -10376,7 +10685,7 @@
         <v>0.12454999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>30</v>
       </c>
@@ -10390,9 +10699,9 @@
         <v>0.11626</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B600">
         <v>16</v>
@@ -10404,9 +10713,9 @@
         <v>0.19806000000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B601">
         <v>16</v>
@@ -10418,9 +10727,9 @@
         <v>0.21532999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B602">
         <v>16</v>
@@ -10432,9 +10741,9 @@
         <v>0.15368000000000001</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B603">
         <v>16</v>
@@ -10446,9 +10755,9 @@
         <v>0.20324</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B604">
         <v>16</v>
@@ -10460,9 +10769,9 @@
         <v>0.17163</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B605">
         <v>16</v>
@@ -10474,9 +10783,9 @@
         <v>0.19975000000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B606">
         <v>16</v>
@@ -10488,9 +10797,9 @@
         <v>0.10730000000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B607">
         <v>16</v>
@@ -10502,9 +10811,9 @@
         <v>6.5460000000000004E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B608">
         <v>16</v>
@@ -10516,9 +10825,9 @@
         <v>0.15189</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B609">
         <v>16</v>
@@ -10531,8 +10840,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F609">
-    <sortState ref="A2:F609">
+  <autoFilter ref="A1:F609" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F609">
       <sortCondition ref="B1:B609"/>
     </sortState>
   </autoFilter>
@@ -10547,162 +10856,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
         <v>310</v>
       </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>327</v>
-      </c>
-      <c r="B10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>328</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -10719,53 +11028,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>314</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/input/CG_SLA.xlsx
+++ b/analyses/input/CG_SLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/CGtraits/analyses/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45192916-46B8-5240-AE80-3DBFC0AEAC9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9168C-C001-0E45-B63F-1FCBC9187FF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="2160" windowWidth="32260" windowHeight="18060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="501">
   <si>
     <t>IND</t>
   </si>
@@ -1340,12 +1340,6 @@
     <t>ALNINC_HF_8_2</t>
   </si>
   <si>
-    <t>BETPOP_GR_A_1</t>
-  </si>
-  <si>
-    <t>BETPOP_GR_A_2</t>
-  </si>
-  <si>
     <t>BETPOP_GR_5C_1</t>
   </si>
   <si>
@@ -1539,6 +1533,9 @@
   </si>
   <si>
     <t>DBH</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1972,10 +1969,10 @@
   <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B571" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="F610" sqref="F610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2000,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,7 +2240,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>274</v>
       </c>
@@ -2257,7 +2254,7 @@
         <v>0.10392</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>0.18917</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>276</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>0.21009</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>0.24706</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>184.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>280</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>0.17649000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>245</v>
       </c>
@@ -2412,7 +2409,7 @@
         <v>0.27407999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -2428,11 +2425,8 @@
       <c r="F28">
         <v>179.6</v>
       </c>
-      <c r="G28">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -2446,7 +2440,7 @@
         <v>0.25574999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -2463,7 +2457,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2477,7 +2471,7 @@
         <v>0.13735</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>283</v>
       </c>
@@ -4518,7 +4512,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -4535,7 +4529,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -4901,6 +4895,9 @@
       <c r="E186">
         <v>0.36726999999999999</v>
       </c>
+      <c r="F186">
+        <v>92.4</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -4929,6 +4926,9 @@
       <c r="E188">
         <v>0.34489999999999998</v>
       </c>
+      <c r="F188">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -4957,6 +4957,9 @@
       <c r="E190">
         <v>0.2407</v>
       </c>
+      <c r="F190" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -4985,8 +4988,11 @@
       <c r="E192">
         <v>6.59E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>5.2580000000000002E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>42</v>
       </c>
@@ -5013,8 +5019,11 @@
       <c r="E194">
         <v>0.16880999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>43</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>0.13478999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>44</v>
       </c>
@@ -5041,8 +5050,11 @@
       <c r="E196">
         <v>0.23386999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -5056,7 +5068,7 @@
         <v>0.32157999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>149</v>
       </c>
@@ -5069,8 +5081,14 @@
       <c r="E198">
         <v>0.21592</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="G198">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>150</v>
       </c>
@@ -5084,7 +5102,7 @@
         <v>0.16986000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -5097,8 +5115,14 @@
       <c r="E200">
         <v>0.21618000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <v>186.2</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>47</v>
       </c>
@@ -5112,7 +5136,7 @@
         <v>3.3848999999999997E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -5125,8 +5149,11 @@
       <c r="E202">
         <v>0.18331</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -5140,7 +5167,7 @@
         <v>0.24690000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>50</v>
       </c>
@@ -5153,8 +5180,11 @@
       <c r="E204">
         <v>5.5259999999999997E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -5168,7 +5198,7 @@
         <v>6.2390000000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>52</v>
       </c>
@@ -5181,8 +5211,11 @@
       <c r="E206">
         <v>6.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>53</v>
       </c>
@@ -5196,7 +5229,7 @@
         <v>4.6269999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>54</v>
       </c>
@@ -5209,8 +5242,11 @@
       <c r="E208">
         <v>5.7020000000000001E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <v>194.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>55</v>
       </c>
@@ -5224,7 +5260,7 @@
         <v>9.1389999999999999E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -5237,8 +5273,11 @@
       <c r="E210">
         <v>4.965E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -5252,7 +5291,7 @@
         <v>0.14504</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>56</v>
       </c>
@@ -5265,8 +5304,11 @@
       <c r="E212">
         <v>0.11971</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>57</v>
       </c>
@@ -5280,9 +5322,9 @@
         <v>0.10001</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -5293,10 +5335,13 @@
       <c r="E214">
         <v>0.24195</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -5308,9 +5353,9 @@
         <v>0.52241000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -5321,10 +5366,13 @@
       <c r="E216">
         <v>0.28397</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -5336,7 +5384,7 @@
         <v>0.29221000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5349,8 +5397,11 @@
       <c r="E218">
         <v>0.13753000000000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5364,7 +5415,7 @@
         <v>0.11472</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -5377,8 +5428,11 @@
       <c r="E220">
         <v>0.13888</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -5392,7 +5446,7 @@
         <v>0.10971</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -5405,8 +5459,11 @@
       <c r="E222">
         <v>3.456E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5420,7 +5477,7 @@
         <v>2.9479999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5433,8 +5490,14 @@
       <c r="E224">
         <v>0.11919</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>223.4</v>
+      </c>
+      <c r="G224">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5448,7 +5511,7 @@
         <v>0.16156999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>146</v>
       </c>
@@ -5461,8 +5524,11 @@
       <c r="E226">
         <v>0.20782</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>145</v>
       </c>
@@ -5476,7 +5542,7 @@
         <v>0.27263999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5489,8 +5555,11 @@
       <c r="E228">
         <v>0.21348</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -5504,7 +5573,7 @@
         <v>0.13841000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -5517,8 +5586,11 @@
       <c r="E230">
         <v>0.15295</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -5532,7 +5604,7 @@
         <v>0.10874</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -5545,8 +5617,14 @@
       <c r="E232">
         <v>0.17002</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <v>216.8</v>
+      </c>
+      <c r="G232">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -5560,7 +5638,7 @@
         <v>0.24712999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -5573,8 +5651,11 @@
       <c r="E234">
         <v>9.4619999999999996E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -5588,7 +5669,7 @@
         <v>7.578E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5601,8 +5682,11 @@
       <c r="E236">
         <v>0.12723000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -5616,7 +5700,7 @@
         <v>0.11176999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -5629,8 +5713,14 @@
       <c r="E238">
         <v>0.15967999999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="G238">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>26</v>
       </c>
@@ -5644,7 +5734,7 @@
         <v>0.15803</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -5656,6 +5746,9 @@
       </c>
       <c r="E240">
         <v>7.7079999999999996E-2</v>
+      </c>
+      <c r="F240">
+        <v>114.6</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5685,6 +5778,9 @@
       <c r="E242">
         <v>0.12877</v>
       </c>
+      <c r="F242">
+        <v>151.19999999999999</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -5713,6 +5809,9 @@
       <c r="E244">
         <v>0.13564000000000001</v>
       </c>
+      <c r="F244">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -5741,6 +5840,9 @@
       <c r="E246">
         <v>0.16034999999999999</v>
       </c>
+      <c r="F246">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -5769,8 +5871,8 @@
       <c r="E248">
         <v>0.28188999999999997</v>
       </c>
-      <c r="F248" t="s">
-        <v>37</v>
+      <c r="F248">
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -5803,8 +5905,8 @@
       <c r="E250">
         <v>0.14576</v>
       </c>
-      <c r="F250" t="s">
-        <v>37</v>
+      <c r="F250">
+        <v>93.1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -5837,6 +5939,9 @@
       <c r="E252">
         <v>0.74761</v>
       </c>
+      <c r="F252">
+        <v>142</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -5865,6 +5970,9 @@
       <c r="E254">
         <v>0.53007000000000004</v>
       </c>
+      <c r="F254">
+        <v>68.400000000000006</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -5893,8 +6001,11 @@
       <c r="E256">
         <v>9.2850000000000002E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>342</v>
       </c>
@@ -5908,7 +6019,7 @@
         <v>0.22669</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>343</v>
       </c>
@@ -5921,8 +6032,11 @@
       <c r="E258">
         <v>0.33617000000000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -5936,7 +6050,7 @@
         <v>0.71945999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>345</v>
       </c>
@@ -5949,8 +6063,11 @@
       <c r="E260">
         <v>5.8630000000000002E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>346</v>
       </c>
@@ -5964,7 +6081,7 @@
         <v>7.5149999999999995E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>348</v>
       </c>
@@ -5977,8 +6094,11 @@
       <c r="E262">
         <v>0.30843999999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>347</v>
       </c>
@@ -5992,7 +6112,7 @@
         <v>0.16433</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>349</v>
       </c>
@@ -6005,8 +6125,11 @@
       <c r="E264">
         <v>0.88275000000000003</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <v>158.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>350</v>
       </c>
@@ -6020,7 +6143,7 @@
         <v>0.83233999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>351</v>
       </c>
@@ -6033,8 +6156,11 @@
       <c r="E266">
         <v>0.159</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>352</v>
       </c>
@@ -6048,7 +6174,7 @@
         <v>0.14277000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>353</v>
       </c>
@@ -6061,8 +6187,11 @@
       <c r="E268">
         <v>0.11686000000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>354</v>
       </c>
@@ -6076,7 +6205,7 @@
         <v>0.15851999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>356</v>
       </c>
@@ -6089,8 +6218,11 @@
       <c r="E270">
         <v>0.54727000000000003</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>355</v>
       </c>
@@ -6104,7 +6236,7 @@
         <v>0.34809000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>357</v>
       </c>
@@ -6117,8 +6249,11 @@
       <c r="E272">
         <v>0.23891000000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>358</v>
       </c>
@@ -6132,7 +6267,7 @@
         <v>0.20846000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>359</v>
       </c>
@@ -6145,8 +6280,11 @@
       <c r="E274">
         <v>0.15483</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>360</v>
       </c>
@@ -6160,7 +6298,7 @@
         <v>0.15245</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>361</v>
       </c>
@@ -6173,8 +6311,11 @@
       <c r="E276">
         <v>7.6100000000000001E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>362</v>
       </c>
@@ -6188,7 +6329,7 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>363</v>
       </c>
@@ -6201,8 +6342,11 @@
       <c r="E278">
         <v>0.12684000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>364</v>
       </c>
@@ -6216,7 +6360,7 @@
         <v>0.16905999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>365</v>
       </c>
@@ -6229,8 +6373,11 @@
       <c r="E280">
         <v>0.10462</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>366</v>
       </c>
@@ -6244,7 +6391,7 @@
         <v>0.17867</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>368</v>
       </c>
@@ -6257,8 +6404,11 @@
       <c r="E282">
         <v>0.10596</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>367</v>
       </c>
@@ -6272,7 +6422,7 @@
         <v>0.15851000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>369</v>
       </c>
@@ -6285,8 +6435,11 @@
       <c r="E284">
         <v>0.11004</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>370</v>
       </c>
@@ -6300,7 +6453,7 @@
         <v>0.14535000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>371</v>
       </c>
@@ -6313,8 +6466,11 @@
       <c r="E286">
         <v>0.14208999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>372</v>
       </c>
@@ -6328,7 +6484,7 @@
         <v>0.20301</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>373</v>
       </c>
@@ -6341,8 +6497,11 @@
       <c r="E288">
         <v>0.26718999999999998</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>374</v>
       </c>
@@ -6356,7 +6515,7 @@
         <v>0.14169000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>375</v>
       </c>
@@ -6369,8 +6528,11 @@
       <c r="E290">
         <v>0.3669</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>376</v>
       </c>
@@ -6384,7 +6546,7 @@
         <v>0.45305000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>377</v>
       </c>
@@ -6397,8 +6559,11 @@
       <c r="E292">
         <v>0.12182</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>378</v>
       </c>
@@ -6412,7 +6577,7 @@
         <v>0.30096000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>379</v>
       </c>
@@ -6425,8 +6590,11 @@
       <c r="E294">
         <v>0.11133999999999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -6440,7 +6608,7 @@
         <v>0.11206000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -6453,8 +6621,11 @@
       <c r="E296">
         <v>0.22509000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>59</v>
       </c>
@@ -6468,7 +6639,7 @@
         <v>0.1525</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>60</v>
       </c>
@@ -6481,8 +6652,11 @@
       <c r="E298">
         <v>2.0219999999999998E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>61</v>
       </c>
@@ -6496,7 +6670,7 @@
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>62</v>
       </c>
@@ -6509,8 +6683,11 @@
       <c r="E300">
         <v>2.1059999999999999E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -6524,7 +6701,7 @@
         <v>2.0920000000000001E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>64</v>
       </c>
@@ -6537,8 +6714,11 @@
       <c r="E302">
         <v>0.19822000000000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>151</v>
       </c>
@@ -6552,7 +6732,7 @@
         <v>0.15053</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>65</v>
       </c>
@@ -6565,8 +6745,11 @@
       <c r="E304">
         <v>1.468E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>66</v>
       </c>
@@ -6580,7 +6763,7 @@
         <v>1.559E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>67</v>
       </c>
@@ -6593,8 +6776,11 @@
       <c r="E306">
         <v>2.2890000000000001E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>68</v>
       </c>
@@ -6608,7 +6794,7 @@
         <v>2.3529999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>69</v>
       </c>
@@ -6621,8 +6807,11 @@
       <c r="E308">
         <v>0.15511</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>70</v>
       </c>
@@ -6636,7 +6825,7 @@
         <v>0.30923</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>71</v>
       </c>
@@ -6649,8 +6838,11 @@
       <c r="E310">
         <v>7.2399999999999999E-3</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>72</v>
       </c>
@@ -6664,7 +6856,7 @@
         <v>1.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>73</v>
       </c>
@@ -6677,8 +6869,11 @@
       <c r="E312">
         <v>1.521E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>74</v>
       </c>
@@ -6692,7 +6887,7 @@
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>75</v>
       </c>
@@ -6705,8 +6900,11 @@
       <c r="E314">
         <v>2.102E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>76</v>
       </c>
@@ -6720,7 +6918,7 @@
         <v>1.6279999999999999E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>77</v>
       </c>
@@ -6733,8 +6931,11 @@
       <c r="E316">
         <v>2.265E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>78</v>
       </c>
@@ -6748,7 +6949,7 @@
         <v>1.7149999999999999E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>79</v>
       </c>
@@ -6761,8 +6962,11 @@
       <c r="E318">
         <v>1.6039999999999999E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>80</v>
       </c>
@@ -6776,7 +6980,7 @@
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>133</v>
       </c>
@@ -6789,8 +6993,11 @@
       <c r="E320">
         <v>1.721E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>134</v>
       </c>
@@ -6804,7 +7011,7 @@
         <v>1.8780000000000002E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>136</v>
       </c>
@@ -6817,8 +7024,11 @@
       <c r="E322">
         <v>1.7270000000000001E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>135</v>
       </c>
@@ -6832,7 +7042,7 @@
         <v>1.189E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>83</v>
       </c>
@@ -6845,8 +7055,11 @@
       <c r="E324">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>84</v>
       </c>
@@ -6860,7 +7073,7 @@
         <v>2.128E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7086,11 @@
       <c r="E326">
         <v>7.5399999999999998E-3</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>86</v>
       </c>
@@ -6888,7 +7104,7 @@
         <v>2.2370000000000001E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>95</v>
       </c>
@@ -6901,8 +7117,11 @@
       <c r="E328">
         <v>5.1200000000000004E-3</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>96</v>
       </c>
@@ -6916,7 +7135,7 @@
         <v>1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>87</v>
       </c>
@@ -6929,8 +7148,11 @@
       <c r="E330">
         <v>2.52E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>88</v>
       </c>
@@ -6944,7 +7166,7 @@
         <v>2.291E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>89</v>
       </c>
@@ -6957,8 +7179,11 @@
       <c r="E332">
         <v>0.22731999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>90</v>
       </c>
@@ -6972,7 +7197,7 @@
         <v>0.17918000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>91</v>
       </c>
@@ -6985,8 +7210,11 @@
       <c r="E334">
         <v>2.0809999999999999E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>92</v>
       </c>
@@ -7000,7 +7228,7 @@
         <v>2.0060000000000001E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>93</v>
       </c>
@@ -7013,8 +7241,11 @@
       <c r="E336">
         <v>7.5100000000000002E-3</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>94</v>
       </c>
@@ -7028,7 +7259,7 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>81</v>
       </c>
@@ -7041,8 +7272,11 @@
       <c r="E338">
         <v>1.7909999999999999E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>82</v>
       </c>
@@ -7056,7 +7290,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>97</v>
       </c>
@@ -7069,8 +7303,11 @@
       <c r="E340">
         <v>0.18176999999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>98</v>
       </c>
@@ -7084,7 +7321,7 @@
         <v>0.20447000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -7097,8 +7334,11 @@
       <c r="E342">
         <v>2.7390000000000001E-2</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>100</v>
       </c>
@@ -7112,7 +7352,7 @@
         <v>1.8110000000000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>101</v>
       </c>
@@ -7125,8 +7365,11 @@
       <c r="E344">
         <v>0.23558000000000001</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>102</v>
       </c>
@@ -7140,7 +7383,7 @@
         <v>0.18911</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>103</v>
       </c>
@@ -7153,8 +7396,11 @@
       <c r="E346">
         <v>4.2889999999999998E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>104</v>
       </c>
@@ -7168,7 +7414,7 @@
         <v>8.5419999999999996E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>105</v>
       </c>
@@ -7181,8 +7427,11 @@
       <c r="E348">
         <v>6.1240000000000003E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>106</v>
       </c>
@@ -7196,7 +7445,7 @@
         <v>6.2269999999999999E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>107</v>
       </c>
@@ -7209,8 +7458,11 @@
       <c r="E350">
         <v>1.438E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>108</v>
       </c>
@@ -7224,7 +7476,7 @@
         <v>1.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>109</v>
       </c>
@@ -7237,8 +7489,11 @@
       <c r="E352">
         <v>1.192E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>110</v>
       </c>
@@ -7252,7 +7507,7 @@
         <v>1.8769999999999998E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>111</v>
       </c>
@@ -7265,8 +7520,11 @@
       <c r="E354">
         <v>2.061E-2</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>112</v>
       </c>
@@ -7280,7 +7538,7 @@
         <v>2.6790000000000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>113</v>
       </c>
@@ -7293,8 +7551,11 @@
       <c r="E356">
         <v>1.5709999999999998E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>114</v>
       </c>
@@ -7308,7 +7569,7 @@
         <v>2.8830000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>115</v>
       </c>
@@ -7321,8 +7582,11 @@
       <c r="E358">
         <v>2.811E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F358">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>116</v>
       </c>
@@ -7336,7 +7600,7 @@
         <v>2.2259999999999999E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -7349,8 +7613,11 @@
       <c r="E360">
         <v>1.8839999999999999E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>118</v>
       </c>
@@ -7364,7 +7631,7 @@
         <v>2.215E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -7377,8 +7644,11 @@
       <c r="E362">
         <v>0.16156999999999999</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>120</v>
       </c>
@@ -7392,7 +7662,7 @@
         <v>0.18174000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>137</v>
       </c>
@@ -7405,8 +7675,11 @@
       <c r="E364">
         <v>9.6100000000000005E-3</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>138</v>
       </c>
@@ -7420,7 +7693,7 @@
         <v>2.324E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>121</v>
       </c>
@@ -7433,8 +7706,11 @@
       <c r="E366">
         <v>0.11971999999999999</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F366">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>122</v>
       </c>
@@ -7448,7 +7724,7 @@
         <v>0.21859000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>123</v>
       </c>
@@ -7461,8 +7737,11 @@
       <c r="E368">
         <v>6.6890000000000005E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>124</v>
       </c>
@@ -7476,7 +7755,7 @@
         <v>9.5019999999999993E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>125</v>
       </c>
@@ -7489,8 +7768,11 @@
       <c r="E370">
         <v>0.10115</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>126</v>
       </c>
@@ -7504,7 +7786,7 @@
         <v>0.11027000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>127</v>
       </c>
@@ -7517,8 +7799,11 @@
       <c r="E372">
         <v>2.0590000000000001E-2</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>128</v>
       </c>
@@ -7532,7 +7817,7 @@
         <v>1.933E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>129</v>
       </c>
@@ -7545,8 +7830,11 @@
       <c r="E374">
         <v>0.19814999999999999</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F374">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>130</v>
       </c>
@@ -7560,7 +7848,7 @@
         <v>0.16063</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>131</v>
       </c>
@@ -7573,8 +7861,11 @@
       <c r="E376">
         <v>0.22477</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>132</v>
       </c>
@@ -7588,7 +7879,7 @@
         <v>0.21346999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>31</v>
       </c>
@@ -7601,8 +7892,11 @@
       <c r="E378">
         <v>0.11339</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -7616,7 +7910,7 @@
         <v>0.11249000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -7629,8 +7923,11 @@
       <c r="E380">
         <v>8.5940000000000003E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F380">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -7644,7 +7941,7 @@
         <v>0.11433</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>139</v>
       </c>
@@ -7657,8 +7954,11 @@
       <c r="E382">
         <v>0.28326000000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F382">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>140</v>
       </c>
@@ -7672,7 +7972,7 @@
         <v>0.28649000000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>154</v>
       </c>
@@ -7685,8 +7985,11 @@
       <c r="E384">
         <v>9.1730000000000006E-2</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F384">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>155</v>
       </c>
@@ -7700,7 +8003,7 @@
         <v>0.12197</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>152</v>
       </c>
@@ -7713,8 +8016,14 @@
       <c r="E386">
         <v>0.16231000000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F386">
+        <v>238.2</v>
+      </c>
+      <c r="G386">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -7728,7 +8037,7 @@
         <v>0.15414</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -7741,8 +8050,11 @@
       <c r="E388">
         <v>0.15611</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F388">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>18</v>
       </c>
@@ -7756,7 +8068,7 @@
         <v>0.16045000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>141</v>
       </c>
@@ -7769,8 +8081,11 @@
       <c r="E390">
         <v>5.0549999999999998E-2</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F390">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>142</v>
       </c>
@@ -7784,7 +8099,7 @@
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>143</v>
       </c>
@@ -7797,8 +8112,11 @@
       <c r="E392">
         <v>8.5500000000000007E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F392">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>144</v>
       </c>
@@ -7812,7 +8130,7 @@
         <v>8.8910000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>146</v>
       </c>
@@ -7825,8 +8143,14 @@
       <c r="E394">
         <v>0.14657000000000001</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F394">
+        <v>205.6</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>145</v>
       </c>
@@ -7840,7 +8164,7 @@
         <v>0.15289</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>156</v>
       </c>
@@ -7853,8 +8177,14 @@
       <c r="E396">
         <v>7.3300000000000004E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F396">
+        <v>126.4</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>157</v>
       </c>
@@ -7868,7 +8198,7 @@
         <v>8.7970000000000007E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>387</v>
       </c>
@@ -7881,8 +8211,11 @@
       <c r="E398">
         <v>0.60009999999999997</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F398">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>388</v>
       </c>
@@ -7896,7 +8229,7 @@
         <v>0.79107000000000005</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>421</v>
       </c>
@@ -7909,8 +8242,11 @@
       <c r="E400">
         <v>0.12734999999999999</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F400">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>422</v>
       </c>
@@ -7924,7 +8260,7 @@
         <v>8.5120000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>381</v>
       </c>
@@ -7937,8 +8273,11 @@
       <c r="E402">
         <v>0.65012000000000003</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F402">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>382</v>
       </c>
@@ -7952,7 +8291,7 @@
         <v>0.55066000000000004</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>423</v>
       </c>
@@ -7965,8 +8304,11 @@
       <c r="E404">
         <v>0.20003000000000001</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F404">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>424</v>
       </c>
@@ -7980,7 +8322,7 @@
         <v>0.16546</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>425</v>
       </c>
@@ -7993,8 +8335,11 @@
       <c r="E406">
         <v>0.25124000000000002</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F406">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>426</v>
       </c>
@@ -8008,7 +8353,7 @@
         <v>0.29086000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>427</v>
       </c>
@@ -8021,8 +8366,11 @@
       <c r="E408">
         <v>2.7519999999999999E-2</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F408">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>428</v>
       </c>
@@ -8036,7 +8384,7 @@
         <v>9.8409999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>429</v>
       </c>
@@ -8049,8 +8397,11 @@
       <c r="E410">
         <v>0.16825000000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F410">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>430</v>
       </c>
@@ -8064,7 +8415,7 @@
         <v>0.14049</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>431</v>
       </c>
@@ -8077,8 +8428,11 @@
       <c r="E412">
         <v>2.0879999999999999E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F412">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>432</v>
       </c>
@@ -8092,7 +8446,7 @@
         <v>4.7530000000000003E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>371</v>
       </c>
@@ -8105,8 +8459,11 @@
       <c r="E414">
         <v>9.4070000000000001E-2</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F414">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>372</v>
       </c>
@@ -8120,7 +8477,7 @@
         <v>0.12581000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>357</v>
       </c>
@@ -8133,8 +8490,11 @@
       <c r="E416">
         <v>0.35615999999999998</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F416">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>358</v>
       </c>
@@ -8148,7 +8508,7 @@
         <v>0.12377000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>182</v>
       </c>
@@ -8161,8 +8521,11 @@
       <c r="E418">
         <v>1.129E-2</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F418">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>183</v>
       </c>
@@ -8176,7 +8539,7 @@
         <v>1.0059999999999999E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>286</v>
       </c>
@@ -8189,8 +8552,11 @@
       <c r="E420">
         <v>2.3109999999999999E-2</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F420">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>285</v>
       </c>
@@ -8204,7 +8570,7 @@
         <v>2.0840000000000001E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>287</v>
       </c>
@@ -8217,8 +8583,11 @@
       <c r="E422">
         <v>7.6400000000000001E-3</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F422">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>288</v>
       </c>
@@ -8232,7 +8601,7 @@
         <v>1.8450000000000001E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>289</v>
       </c>
@@ -8245,8 +8614,11 @@
       <c r="E424">
         <v>2.4539999999999999E-2</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F424">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>290</v>
       </c>
@@ -8260,7 +8632,7 @@
         <v>3.057E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>115</v>
       </c>
@@ -8273,8 +8645,11 @@
       <c r="E426">
         <v>1.221E-2</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F426">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>116</v>
       </c>
@@ -8288,7 +8663,7 @@
         <v>1.375E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>291</v>
       </c>
@@ -8301,8 +8676,11 @@
       <c r="E428">
         <v>1.251E-2</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F428">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>292</v>
       </c>
@@ -8316,7 +8694,7 @@
         <v>1.7430000000000001E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>293</v>
       </c>
@@ -8329,8 +8707,11 @@
       <c r="E430">
         <v>6.2100000000000002E-3</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F430">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>294</v>
       </c>
@@ -8344,7 +8725,7 @@
         <v>2.164E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>295</v>
       </c>
@@ -8357,8 +8738,11 @@
       <c r="E432">
         <v>6.6299999999999996E-3</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F432">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>296</v>
       </c>
@@ -8372,7 +8756,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>297</v>
       </c>
@@ -8385,8 +8769,11 @@
       <c r="E434">
         <v>2.5729999999999999E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F434">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>298</v>
       </c>
@@ -8400,7 +8787,7 @@
         <v>2.9080000000000002E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>299</v>
       </c>
@@ -8413,8 +8800,11 @@
       <c r="E436">
         <v>2.6620000000000001E-2</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F436">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>300</v>
       </c>
@@ -8428,7 +8818,7 @@
         <v>3.6679999999999997E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>301</v>
       </c>
@@ -8441,8 +8831,11 @@
       <c r="E438">
         <v>1.9120000000000002E-2</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F438">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>302</v>
       </c>
@@ -8456,7 +8849,7 @@
         <v>3.0759999999999999E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>131</v>
       </c>
@@ -8469,8 +8862,11 @@
       <c r="E440">
         <v>0.12837999999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F440">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>132</v>
       </c>
@@ -8484,7 +8880,7 @@
         <v>0.17587</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>127</v>
       </c>
@@ -8497,8 +8893,11 @@
       <c r="E442">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F442">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>128</v>
       </c>
@@ -8512,9 +8911,9 @@
         <v>3.7039999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B444">
         <v>11</v>
@@ -8525,10 +8924,13 @@
       <c r="E444">
         <v>1.8429999999999998E-2</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F444">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B445">
         <v>11</v>
@@ -8540,7 +8942,7 @@
         <v>2.078E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>303</v>
       </c>
@@ -8553,8 +8955,11 @@
       <c r="E446">
         <v>1.502E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F446">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>304</v>
       </c>
@@ -8568,7 +8973,7 @@
         <v>1.703E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>305</v>
       </c>
@@ -8581,8 +8986,11 @@
       <c r="E448">
         <v>5.2650000000000002E-2</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F448">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>306</v>
       </c>
@@ -8596,7 +9004,7 @@
         <v>7.6840000000000006E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>307</v>
       </c>
@@ -8609,8 +9017,11 @@
       <c r="E450">
         <v>0.11239</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F450">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>308</v>
       </c>
@@ -8624,7 +9035,7 @@
         <v>0.13935</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>119</v>
       </c>
@@ -8637,8 +9048,11 @@
       <c r="E452">
         <v>0.13957</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F452">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>120</v>
       </c>
@@ -8652,9 +9066,9 @@
         <v>0.21601999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B454">
         <v>11</v>
@@ -8665,10 +9079,13 @@
       <c r="E454">
         <v>1.393E-2</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F454">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B455">
         <v>11</v>
@@ -8680,7 +9097,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>64</v>
       </c>
@@ -8693,8 +9110,11 @@
       <c r="E456">
         <v>0.11508</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F456">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>151</v>
       </c>
@@ -8708,9 +9128,9 @@
         <v>0.14351</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B458">
         <v>11</v>
@@ -8721,10 +9141,13 @@
       <c r="E458">
         <v>1.422E-2</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F458">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B459">
         <v>11</v>
@@ -8736,9 +9159,9 @@
         <v>1.5959999999999998E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B460">
         <v>11</v>
@@ -8749,10 +9172,13 @@
       <c r="E460">
         <v>5.1399999999999996E-3</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F460">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B461">
         <v>11</v>
@@ -8764,7 +9190,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>165</v>
       </c>
@@ -8777,8 +9203,11 @@
       <c r="E462">
         <v>4.0140000000000002E-2</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F462">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>166</v>
       </c>
@@ -8792,9 +9221,9 @@
         <v>5.2470000000000003E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B464">
         <v>11</v>
@@ -8805,10 +9234,13 @@
       <c r="E464">
         <v>5.4600000000000003E-2</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F464">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B465">
         <v>11</v>
@@ -8820,9 +9252,9 @@
         <v>9.3509999999999996E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B466">
         <v>11</v>
@@ -8833,10 +9265,13 @@
       <c r="E466">
         <v>1.635E-2</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F466">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B467">
         <v>11</v>
@@ -8848,9 +9283,9 @@
         <v>3.671E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -8861,10 +9296,13 @@
       <c r="E468">
         <v>1.2019999999999999E-2</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F468">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B469">
         <v>11</v>
@@ -8876,7 +9314,7 @@
         <v>2.0104E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>160</v>
       </c>
@@ -8889,8 +9327,11 @@
       <c r="E470">
         <v>0.19520999999999999</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F470">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>161</v>
       </c>
@@ -8904,9 +9345,9 @@
         <v>0.19378999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B472">
         <v>11</v>
@@ -8918,9 +9359,9 @@
         <v>1.9859999999999999E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B473">
         <v>11</v>
@@ -8932,9 +9373,9 @@
         <v>1.5709999999999998E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B474">
         <v>11</v>
@@ -8945,10 +9386,13 @@
       <c r="E474">
         <v>8.5330000000000003E-2</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F474">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B475">
         <v>11</v>
@@ -8960,9 +9404,9 @@
         <v>0.15762000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B476">
         <v>11</v>
@@ -8973,10 +9417,13 @@
       <c r="E476">
         <v>2.7629999999999998E-2</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F476">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B477">
         <v>11</v>
@@ -8988,7 +9435,7 @@
         <v>2.615E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>263</v>
       </c>
@@ -9001,8 +9448,14 @@
       <c r="E478">
         <v>0.21784999999999999</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F478">
+        <v>271.2</v>
+      </c>
+      <c r="G478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>264</v>
       </c>
@@ -9016,7 +9469,7 @@
         <v>0.19366</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>52</v>
       </c>
@@ -9029,8 +9482,14 @@
       <c r="E480">
         <v>0.37059999999999998</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F480">
+        <v>149.6</v>
+      </c>
+      <c r="G480">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>53</v>
       </c>
@@ -9044,7 +9503,7 @@
         <v>0.41796</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>433</v>
       </c>
@@ -9057,8 +9516,14 @@
       <c r="E482">
         <v>0.23003999999999999</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F482">
+        <v>230.8</v>
+      </c>
+      <c r="G482">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>434</v>
       </c>
@@ -9072,9 +9537,9 @@
         <v>0.27872000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="B484">
         <v>12</v>
@@ -9085,10 +9550,13 @@
       <c r="E484">
         <v>7.8700000000000006E-2</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F484">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>436</v>
+        <v>243</v>
       </c>
       <c r="B485">
         <v>12</v>
@@ -9100,7 +9568,7 @@
         <v>1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>232</v>
       </c>
@@ -9113,8 +9581,11 @@
       <c r="E486">
         <v>0.10882</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F486">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>233</v>
       </c>
@@ -9128,7 +9599,7 @@
         <v>0.16780999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -9141,8 +9612,11 @@
       <c r="E488">
         <v>7.7229999999999993E-2</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F488">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -9156,7 +9630,7 @@
         <v>0.25599</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>56</v>
       </c>
@@ -9169,8 +9643,11 @@
       <c r="E490">
         <v>0.14387</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F490">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>57</v>
       </c>
@@ -9184,7 +9661,7 @@
         <v>0.13713</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>21</v>
       </c>
@@ -9197,8 +9674,11 @@
       <c r="E492">
         <v>0.11133999999999999</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F492">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>22</v>
       </c>
@@ -9215,9 +9695,9 @@
         <v>0.12712999999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B494">
         <v>12</v>
@@ -9228,10 +9708,13 @@
       <c r="E494">
         <v>5.7639999999999997E-2</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F494">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B495">
         <v>12</v>
@@ -9243,7 +9726,7 @@
         <v>0.10647</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>40</v>
       </c>
@@ -9256,8 +9739,11 @@
       <c r="E496">
         <v>0.13971</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F496">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>41</v>
       </c>
@@ -9271,7 +9757,7 @@
         <v>0.12268</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>381</v>
       </c>
@@ -9284,8 +9770,14 @@
       <c r="E498">
         <v>0.70438000000000001</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F498">
+        <v>172.8</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>382</v>
       </c>
@@ -9299,7 +9791,7 @@
         <v>0.73585999999999996</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>383</v>
       </c>
@@ -9312,8 +9804,11 @@
       <c r="E500">
         <v>8.2000000000000007E-3</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F500">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>384</v>
       </c>
@@ -9327,7 +9822,7 @@
         <v>7.7400000000000004E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>385</v>
       </c>
@@ -9340,8 +9835,11 @@
       <c r="E502">
         <v>7.7670000000000003E-2</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F502">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>386</v>
       </c>
@@ -9355,7 +9853,7 @@
         <v>0.12288</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>387</v>
       </c>
@@ -9368,8 +9866,14 @@
       <c r="E504">
         <v>0.95243999999999995</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F504">
+        <v>175.8</v>
+      </c>
+      <c r="G504">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>388</v>
       </c>
@@ -9383,7 +9887,7 @@
         <v>0.68959999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>389</v>
       </c>
@@ -9396,8 +9900,11 @@
       <c r="E506">
         <v>1.1639999999999999E-2</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F506">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>390</v>
       </c>
@@ -9411,7 +9918,7 @@
         <v>1.227E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>391</v>
       </c>
@@ -9424,8 +9931,11 @@
       <c r="E508">
         <v>2.0289999999999999E-2</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F508">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>392</v>
       </c>
@@ -9439,7 +9949,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>394</v>
       </c>
@@ -9452,8 +9962,11 @@
       <c r="E510">
         <v>0.33276</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F510">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>393</v>
       </c>
@@ -9467,7 +9980,7 @@
         <v>0.22325</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>395</v>
       </c>
@@ -9480,8 +9993,11 @@
       <c r="E512">
         <v>5.0200000000000002E-3</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F512">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>396</v>
       </c>
@@ -9495,7 +10011,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>397</v>
       </c>
@@ -9508,8 +10024,11 @@
       <c r="E514">
         <v>0.50832999999999995</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F514">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>398</v>
       </c>
@@ -9523,7 +10042,7 @@
         <v>0.39215</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>399</v>
       </c>
@@ -9536,8 +10055,11 @@
       <c r="E516">
         <v>7.1910000000000002E-2</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F516">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>400</v>
       </c>
@@ -9551,7 +10073,7 @@
         <v>9.1469999999999996E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>401</v>
       </c>
@@ -9564,8 +10086,11 @@
       <c r="E518">
         <v>9.4520000000000007E-2</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F518">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>402</v>
       </c>
@@ -9579,7 +10104,7 @@
         <v>8.0629999999999993E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>403</v>
       </c>
@@ -9592,8 +10117,11 @@
       <c r="E520">
         <v>7.2489999999999999E-2</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F520">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>404</v>
       </c>
@@ -9607,7 +10135,7 @@
         <v>0.17904</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>405</v>
       </c>
@@ -9620,8 +10148,14 @@
       <c r="E522">
         <v>0.92491000000000001</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F522">
+        <v>197.5</v>
+      </c>
+      <c r="G522">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>406</v>
       </c>
@@ -9635,7 +10169,7 @@
         <v>0.44506000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>407</v>
       </c>
@@ -9648,8 +10182,11 @@
       <c r="E524">
         <v>9.2520000000000005E-2</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F524">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>408</v>
       </c>
@@ -9663,7 +10200,7 @@
         <v>0.14265</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>409</v>
       </c>
@@ -9676,8 +10213,11 @@
       <c r="E526">
         <v>0.5645</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F526">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>410</v>
       </c>
@@ -9691,7 +10231,7 @@
         <v>0.45272000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>411</v>
       </c>
@@ -9704,8 +10244,14 @@
       <c r="E528">
         <v>0.67486999999999997</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F528">
+        <v>178.4</v>
+      </c>
+      <c r="G528">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>412</v>
       </c>
@@ -9719,7 +10265,7 @@
         <v>0.69494</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>413</v>
       </c>
@@ -9732,8 +10278,11 @@
       <c r="E530">
         <v>7.9399999999999991E-3</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F530">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>414</v>
       </c>
@@ -9747,7 +10296,7 @@
         <v>1.4189999999999999E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>415</v>
       </c>
@@ -9760,8 +10309,11 @@
       <c r="E532">
         <v>9.0539999999999995E-2</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F532">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>416</v>
       </c>
@@ -9775,7 +10327,7 @@
         <v>0.11568000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>417</v>
       </c>
@@ -9788,8 +10340,11 @@
       <c r="E534">
         <v>7.0749999999999993E-2</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F534">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>418</v>
       </c>
@@ -9803,7 +10358,7 @@
         <v>9.536E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>363</v>
       </c>
@@ -9816,8 +10371,11 @@
       <c r="E536">
         <v>9.3630000000000005E-2</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F536">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>364</v>
       </c>
@@ -9831,7 +10389,7 @@
         <v>7.9619999999999996E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>356</v>
       </c>
@@ -9844,8 +10402,11 @@
       <c r="E538">
         <v>0.10012</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F538">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>355</v>
       </c>
@@ -9859,7 +10420,7 @@
         <v>0.20394000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>419</v>
       </c>
@@ -9872,8 +10433,11 @@
       <c r="E540">
         <v>9.5740000000000006E-2</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F540">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>420</v>
       </c>
@@ -9887,9 +10451,9 @@
         <v>0.15275</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B542">
         <v>14</v>
@@ -9900,10 +10464,13 @@
       <c r="E542">
         <v>1.7610000000000001E-2</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F542">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B543">
         <v>14</v>
@@ -9915,9 +10482,9 @@
         <v>2.5579999999999999E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B544">
         <v>14</v>
@@ -9928,10 +10495,13 @@
       <c r="E544">
         <v>2.6040000000000001E-2</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F544">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B545">
         <v>14</v>
@@ -9943,7 +10513,7 @@
         <v>3.6850000000000001E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>339</v>
       </c>
@@ -9956,8 +10526,11 @@
       <c r="E546">
         <v>0.14152000000000001</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F546">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>340</v>
       </c>
@@ -9971,7 +10544,7 @@
         <v>7.825E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>176</v>
       </c>
@@ -9984,8 +10557,11 @@
       <c r="E548">
         <v>5.11E-2</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F548">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>177</v>
       </c>
@@ -9999,9 +10575,9 @@
         <v>5.0930000000000003E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B550">
         <v>14</v>
@@ -10012,10 +10588,13 @@
       <c r="E550">
         <v>0.14319999999999999</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F550">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B551">
         <v>14</v>
@@ -10027,9 +10606,9 @@
         <v>0.19453000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B552">
         <v>14</v>
@@ -10040,10 +10619,13 @@
       <c r="E552">
         <v>8.6819999999999994E-2</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F552">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B553">
         <v>14</v>
@@ -10055,9 +10637,9 @@
         <v>0.10729</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B554">
         <v>14</v>
@@ -10068,10 +10650,13 @@
       <c r="E554">
         <v>8.6970000000000006E-2</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F554">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B555">
         <v>14</v>
@@ -10083,9 +10668,9 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B556">
         <v>14</v>
@@ -10096,10 +10681,13 @@
       <c r="E556">
         <v>8.8209999999999997E-2</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F556">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B557">
         <v>14</v>
@@ -10111,9 +10699,9 @@
         <v>8.9380000000000001E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B558">
         <v>14</v>
@@ -10124,10 +10712,13 @@
       <c r="E558">
         <v>8.7870000000000004E-2</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F558">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B559">
         <v>14</v>
@@ -10139,7 +10730,7 @@
         <v>0.15916</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>305</v>
       </c>
@@ -10152,8 +10743,11 @@
       <c r="E560">
         <v>9.8269999999999996E-2</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F560">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>306</v>
       </c>
@@ -10167,9 +10761,9 @@
         <v>0.11771</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B562">
         <v>14</v>
@@ -10180,10 +10774,13 @@
       <c r="E562">
         <v>1.5520000000000001E-2</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F562">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B563">
         <v>14</v>
@@ -10195,7 +10792,7 @@
         <v>1.6920000000000001E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>363</v>
       </c>
@@ -10208,8 +10805,11 @@
       <c r="E564">
         <v>2.0930000000000001E-2</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F564">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>364</v>
       </c>
@@ -10223,7 +10823,7 @@
         <v>2.639E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>356</v>
       </c>
@@ -10236,8 +10836,11 @@
       <c r="E566">
         <v>0.12214</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F566">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>355</v>
       </c>
@@ -10251,7 +10854,7 @@
         <v>0.12737000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>258</v>
       </c>
@@ -10264,8 +10867,11 @@
       <c r="E568">
         <v>8.4390000000000007E-2</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F568">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>259</v>
       </c>
@@ -10279,9 +10885,9 @@
         <v>9.1340000000000005E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B570">
         <v>15</v>
@@ -10292,10 +10898,13 @@
       <c r="E570">
         <v>5.3199999999999997E-2</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F570">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B571">
         <v>15</v>
@@ -10307,9 +10916,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B572">
         <v>15</v>
@@ -10320,10 +10929,13 @@
       <c r="E572">
         <v>8.8120000000000004E-2</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F572">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B573">
         <v>15</v>
@@ -10335,7 +10947,7 @@
         <v>0.17559</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>262</v>
       </c>
@@ -10348,10 +10960,16 @@
       <c r="E574">
         <v>0.21077000000000001</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F574">
+        <v>187.2</v>
+      </c>
+      <c r="G574">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B575">
         <v>15</v>
@@ -10363,9 +10981,9 @@
         <v>0.23976</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B576">
         <v>15</v>
@@ -10376,10 +10994,13 @@
       <c r="E576">
         <v>0.10725</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F576">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B577">
         <v>15</v>
@@ -10391,7 +11012,7 @@
         <v>0.11244</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>269</v>
       </c>
@@ -10404,8 +11025,11 @@
       <c r="E578">
         <v>0.23261000000000001</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F578">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>270</v>
       </c>
@@ -10419,7 +11043,7 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>146</v>
       </c>
@@ -10432,8 +11056,14 @@
       <c r="E580">
         <v>0.23895</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F580">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="G580">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>145</v>
       </c>
@@ -10447,9 +11077,9 @@
         <v>0.23094999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B582">
         <v>15</v>
@@ -10460,10 +11090,13 @@
       <c r="E582">
         <v>0.10063999999999999</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F582">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B583">
         <v>15</v>
@@ -10475,7 +11108,7 @@
         <v>0.23146</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -10488,8 +11121,11 @@
       <c r="E584">
         <v>9.7199999999999995E-2</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F584">
+        <v>194.2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -10503,9 +11139,9 @@
         <v>0.12823999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B586">
         <v>15</v>
@@ -10516,10 +11152,13 @@
       <c r="E586">
         <v>7.9119999999999996E-2</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F586">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B587">
         <v>15</v>
@@ -10531,9 +11170,9 @@
         <v>0.11219</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B588">
         <v>16</v>
@@ -10544,10 +11183,13 @@
       <c r="E588">
         <v>0.13852</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F588">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B589">
         <v>16</v>
@@ -10559,9 +11201,9 @@
         <v>0.18271999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B590">
         <v>16</v>
@@ -10572,10 +11214,13 @@
       <c r="E590">
         <v>0.13178000000000001</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F590">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B591">
         <v>16</v>
@@ -10587,9 +11232,9 @@
         <v>0.20727000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B592">
         <v>16</v>
@@ -10600,10 +11245,13 @@
       <c r="E592">
         <v>0.18093000000000001</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F592">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B593">
         <v>16</v>
@@ -10615,7 +11263,7 @@
         <v>0.16672000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>234</v>
       </c>
@@ -10628,8 +11276,11 @@
       <c r="E594">
         <v>0.22663</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F594">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>235</v>
       </c>
@@ -10643,7 +11294,7 @@
         <v>0.23086999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>256</v>
       </c>
@@ -10656,8 +11307,11 @@
       <c r="E596">
         <v>0.19159000000000001</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F596">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>257</v>
       </c>
@@ -10671,7 +11325,7 @@
         <v>0.24112</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>29</v>
       </c>
@@ -10684,8 +11338,11 @@
       <c r="E598">
         <v>0.12454999999999999</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F598">
+        <v>144.80000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>30</v>
       </c>
@@ -10699,9 +11356,9 @@
         <v>0.11626</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B600">
         <v>16</v>
@@ -10712,10 +11369,13 @@
       <c r="E600">
         <v>0.19806000000000001</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F600">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B601">
         <v>16</v>
@@ -10727,9 +11387,9 @@
         <v>0.21532999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B602">
         <v>16</v>
@@ -10740,10 +11400,13 @@
       <c r="E602">
         <v>0.15368000000000001</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F602">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B603">
         <v>16</v>
@@ -10755,7 +11418,7 @@
         <v>0.20324</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>277</v>
       </c>
@@ -10768,8 +11431,11 @@
       <c r="E604">
         <v>0.17163</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F604">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>280</v>
       </c>
@@ -10783,9 +11449,9 @@
         <v>0.19975000000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B606">
         <v>16</v>
@@ -10796,10 +11462,13 @@
       <c r="E606">
         <v>0.10730000000000001</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F606">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B607">
         <v>16</v>
@@ -10811,7 +11480,7 @@
         <v>6.5460000000000004E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>254</v>
       </c>
@@ -10823,6 +11492,9 @@
       </c>
       <c r="E608">
         <v>0.15189</v>
+      </c>
+      <c r="F608">
+        <v>87.9</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
